--- a/StructureDefinition-profile-Measure.xlsx
+++ b/StructureDefinition-profile-Measure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3047" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3960" uniqueCount="575">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7263441-06:00</t>
+    <t>2026-02-09T22:05:43.1885377-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -419,38 +419,144 @@
     <t>Measure.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Measure.extension:versionAlgorithm</t>
+  </si>
+  <si>
+    <t>versionAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.versionAlgorithm|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Measure.versionAlgorithm[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
+  </si>
+  <si>
+    <t>Element `Measure.versionAlgorithm[x]` is will have a context of Measure based on following the parent source element upwards and mapping to `Measure`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Measure.extension:basis</t>
+  </si>
+  <si>
+    <t>basis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.basis|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Measure.basis from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The population basis specifies the type of elements in the population. For a subject-based measure, this is boolean (because the subject and the population basis are the same, and the population criteria define yes/no values for each individual in the population). For measures that have a population basis that is different than the subject, this element specifies the type of the population basis. For example, an encounter-based measure has a subject of Patient and a population basis of Encounter, and the population criteria all return lists of Encounters.</t>
+  </si>
+  <si>
+    <t>Element `Measure.basis` is will have a context of Measure based on following the parent source element upwards and mapping to `Measure`.</t>
+  </si>
+  <si>
+    <t>Measure.extension:copyrightLabel</t>
+  </si>
+  <si>
+    <t>copyrightLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.copyrightLabel|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Measure.copyrightLabel from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
+  </si>
+  <si>
+    <t>Element `Measure.copyrightLabel` is will have a context of Measure based on following the parent source element upwards and mapping to `Measure`.</t>
+  </si>
+  <si>
+    <t>Measure.extension:scoringUnit</t>
+  </si>
+  <si>
+    <t>scoringUnit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.scoringUnit|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Measure.scoringUnit from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Defines the expected units of measure for the measure score. This element SHOULD be specified as a UCUM unit.</t>
+  </si>
+  <si>
+    <t>Element `Measure.scoringUnit` is will have a context of Measure based on following the parent source element upwards and mapping to `Measure`.</t>
+  </si>
+  <si>
+    <t>Measure.extension:term</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.term|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Measure.term from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Provides a description of an individual term used within the measure.</t>
+  </si>
+  <si>
+    <t>Element `Measure.term` is will have a context of Measure based on following the parent source element upwards and mapping to `Measure`.</t>
+  </si>
+  <si>
+    <t>Measure.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Measure.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -1107,9 +1213,6 @@
     <t>Defined terms used in the measure documentation</t>
   </si>
   <si>
-    <t>Provides a description of an individual term used within the measure.</t>
-  </si>
-  <si>
     <t>Measure developers must be able to provide precise definitions of terms used within measure descriptions and guidance to help communicate the intent of the measure.</t>
   </si>
   <si>
@@ -1156,10 +1259,170 @@
     <t>Measure.group.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Measure.group.extension:linkId</t>
+  </si>
+  <si>
+    <t>linkId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group.linkId|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Measure.group.linkId from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An identifier that is unique within the Measure allowing linkage to the equivalent item in a MeasureReport resource.</t>
+  </si>
+  <si>
+    <t>Element `Measure.group.linkId` is will have a context of Measure.group based on following the parent source element upwards and mapping to `Measure`.</t>
+  </si>
+  <si>
+    <t>Measure.group.extension:type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group.type|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Measure.group.type from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Measure.group.type` is will have a context of Measure.group based on following the parent source element upwards and mapping to `Measure`.</t>
+  </si>
+  <si>
+    <t>Measure.group.extension:subject</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group.subject|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Measure.group.subject[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Measure.group.subject[x]` is will have a context of Measure.group based on following the parent source element upwards and mapping to `Measure`.</t>
+  </si>
+  <si>
+    <t>Measure.group.extension:subjectCanonical</t>
+  </si>
+  <si>
+    <t>subjectCanonical</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/Group in FHIR R4</t>
+  </si>
+  <si>
+    <t>Measure.group.extension:subjectReference</t>
+  </si>
+  <si>
+    <t>subjectReference</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Group in FHIR R4</t>
+  </si>
+  <si>
+    <t>Measure.group.extension:basis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group.basis|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Measure.group.basis from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Measure.group.basis` is will have a context of Measure.group based on following the parent source element upwards and mapping to `Measure`.</t>
+  </si>
+  <si>
+    <t>Measure.group.extension:scoring</t>
+  </si>
+  <si>
+    <t>scoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group.scoring|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Measure.group.scoring from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Measure.group.scoring` is will have a context of Measure.group based on following the parent source element upwards and mapping to `Measure`.</t>
+  </si>
+  <si>
+    <t>Measure.group.extension:scoringUnit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group.scoringUnit|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Measure.group.scoringUnit from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Measure.group.scoringUnit` is will have a context of Measure.group based on following the parent source element upwards and mapping to `Measure`.</t>
+  </si>
+  <si>
+    <t>Measure.group.extension:rateAggregation</t>
+  </si>
+  <si>
+    <t>rateAggregation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group.rateAggregation|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Measure.group.rateAggregation from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Measure.group.rateAggregation` is will have a context of Measure.group based on following the parent source element upwards and mapping to `Measure`.</t>
+  </si>
+  <si>
+    <t>Measure.group.extension:improvementNotation</t>
+  </si>
+  <si>
+    <t>improvementNotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group.improvementNotation|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Measure.group.improvementNotation from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Measure.group.improvementNotation` is will have a context of Measure.group based on following the parent source element upwards and mapping to `Measure`.</t>
+  </si>
+  <si>
+    <t>Measure.group.extension:library</t>
+  </si>
+  <si>
+    <t>library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-canonical|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Measure.group.library from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/Library in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Measure.group.library` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+Element `Measure.group.library` is will have a context of Measure.group based on following the parent source element upwards and mapping to `Measure`.</t>
   </si>
   <si>
     <t>Measure.group.modifierExtension</t>
@@ -1212,6 +1475,77 @@
     <t>Measure.group.population.extension</t>
   </si>
   <si>
+    <t>Measure.group.population.extension:linkId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group.population.linkId|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Measure.group.population.linkId from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An identifier that is unique within the Measure allowing linkage to the equivalent population in a MeasureReport resource.</t>
+  </si>
+  <si>
+    <t>Element `Measure.group.population.linkId` is will have a context of Measure.group.population based on following the parent source element upwards and mapping to `Measure`.</t>
+  </si>
+  <si>
+    <t>Measure.group.population.extension:inputPopulationId</t>
+  </si>
+  <si>
+    <t>inputPopulationId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group.population.inputPopulationId|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Measure.group.population.inputPopulationId from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The id of a population element in this measure that provides the input for this population criteria. In most cases, the scoring structure of the measure implies specific relationships (e.g. the Numerator uses the Denominator as the source in a proportion scoring). In some cases, however, multiple possible choices exist and must be resolved explicitly. For example in a ratio measure with multiple initial populations, the denominator must specify which population should be used as the starting point.</t>
+  </si>
+  <si>
+    <t>Element `Measure.group.population.inputPopulationId` is will have a context of Measure.group.population based on following the parent source element upwards and mapping to `Measure`.</t>
+  </si>
+  <si>
+    <t>Measure.group.population.extension:aggregateMethod</t>
+  </si>
+  <si>
+    <t>aggregateMethod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group.population.aggregateMethod|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Measure.group.population.aggregateMethod from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Specifies which method should be used to aggregate measure observation values. For most scoring types, this is implied by scoring (e.g. a proportion measure counts members of the populations). For continuous variables, however, this information must be specified to ensure correct calculation.</t>
+  </si>
+  <si>
+    <t>Element `Measure.group.population.aggregateMethod` is will have a context of Measure.group.population based on following the parent source element upwards and mapping to `Measure`.</t>
+  </si>
+  <si>
+    <t>Measure.group.population.extension:groupDefinition</t>
+  </si>
+  <si>
+    <t>groupDefinition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Measure.group.population.groupDefinition from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Measure.group.population.groupDefinition` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Measure.group.population.groupDefinition` is will have a context of Measure.group.population based on following the parent source element upwards and mapping to `Measure`.</t>
+  </si>
+  <si>
     <t>Measure.group.population.modifierExtension</t>
   </si>
   <si>
@@ -1270,6 +1604,29 @@
     <t>Measure.group.stratifier.extension</t>
   </si>
   <si>
+    <t>Measure.group.stratifier.extension:linkId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group.stratifier.linkId|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Measure.group.stratifier.linkId from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Measure.group.stratifier.linkId` is will have a context of Measure.group.stratifier based on following the parent source element upwards and mapping to `Measure`.</t>
+  </si>
+  <si>
+    <t>Measure.group.stratifier.extension:groupDefinition</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Measure.group.stratifier.groupDefinition from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Measure.group.stratifier.groupDefinition` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Measure.group.stratifier.groupDefinition` is will have a context of Measure.group.stratifier based on following the parent source element upwards and mapping to `Measure`.</t>
+  </si>
+  <si>
     <t>Measure.group.stratifier.modifierExtension</t>
   </si>
   <si>
@@ -1318,6 +1675,29 @@
     <t>Measure.group.stratifier.component.extension</t>
   </si>
   <si>
+    <t>Measure.group.stratifier.component.extension:linkId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group.stratifier.component.linkId|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Measure.group.stratifier.component.linkId from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Measure.group.stratifier.component.linkId` is will have a context of Measure.group.stratifier.component based on following the parent source element upwards and mapping to `Measure`.</t>
+  </si>
+  <si>
+    <t>Measure.group.stratifier.component.extension:groupDefinition</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Measure.group.stratifier.component.groupDefinition from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Measure.group.stratifier.component.groupDefinition` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Measure.group.stratifier.component.groupDefinition` is will have a context of Measure.group.stratifier.component based on following the parent source element upwards and mapping to `Measure`.</t>
+  </si>
+  <si>
     <t>Measure.group.stratifier.component.modifierExtension</t>
   </si>
   <si>
@@ -1364,6 +1744,19 @@
   </si>
   <si>
     <t>Measure.supplementalData.extension</t>
+  </si>
+  <si>
+    <t>Measure.supplementalData.extension:linkId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.supplementalData.linkId|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Measure.supplementalData.linkId from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Measure.supplementalData.linkId` is will have a context of Measure.supplementalData based on following the parent source element upwards and mapping to `Measure`.</t>
   </si>
   <si>
     <t>Measure.supplementalData.modifierExtension</t>
@@ -1715,7 +2108,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN84"/>
+  <dimension ref="A1:AN109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1724,9 +2117,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.51953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.8984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="45.51953125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="18.96484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1734,7 +2127,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="20.23828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="104.625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2690,7 +3083,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2709,17 +3102,15 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>135</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -2756,16 +3147,14 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>136</v>
@@ -2792,7 +3181,7 @@
         <v>77</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -2800,43 +3189,43 @@
         <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2884,7 +3273,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2893,7 +3282,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>137</v>
@@ -2908,17 +3297,19 @@
         <v>77</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2936,23 +3327,21 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -3000,25 +3389,25 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>77</v>
@@ -3029,12 +3418,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3043,7 +3434,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -3052,23 +3443,21 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3116,7 +3505,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3125,19 +3514,19 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>77</v>
@@ -3145,12 +3534,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3168,7 +3559,7 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>159</v>
@@ -3230,25 +3621,25 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>77</v>
@@ -3259,12 +3650,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="D14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3273,7 +3666,7 @@
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
@@ -3282,10 +3675,10 @@
         <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>166</v>
@@ -3296,9 +3689,7 @@
       <c r="N14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="O14" t="s" s="2">
-        <v>169</v>
-      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3346,19 +3737,19 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>77</v>
@@ -3375,44 +3766,46 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3460,22 +3853,22 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>77</v>
@@ -3484,7 +3877,7 @@
         <v>77</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16">
@@ -3512,10 +3905,10 @@
         <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>177</v>
@@ -3523,8 +3916,12 @@
       <c r="M16" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="N16" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3587,10 +3984,10 @@
         <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -3601,10 +3998,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3612,33 +4009,35 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3662,37 +4061,37 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>179</v>
-      </c>
       <c r="AG17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>77</v>
@@ -3701,13 +4100,13 @@
         <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3715,10 +4114,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3741,20 +4140,18 @@
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3802,7 +4199,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3817,10 +4214,10 @@
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3831,10 +4228,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3854,71 +4251,71 @@
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M19" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="P19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O19" s="2"/>
-      <c r="P19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q19" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="R19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3927,7 +4324,7 @@
         <v>86</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>98</v>
@@ -3954,7 +4351,7 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3973,16 +4370,16 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4047,10 +4444,10 @@
         <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -4061,10 +4458,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4084,23 +4481,19 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4148,7 +4541,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4163,10 +4556,10 @@
         <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -4177,10 +4570,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4188,31 +4581,31 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4238,13 +4631,13 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -4262,13 +4655,13 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
@@ -4277,10 +4670,10 @@
         <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4291,10 +4684,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4317,18 +4710,20 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4376,7 +4771,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4391,10 +4786,10 @@
         <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4405,10 +4800,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4419,7 +4814,7 @@
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
@@ -4428,54 +4823,54 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="O24" s="2"/>
+      <c r="P24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q24" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="R24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X24" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="Y24" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="O24" t="s" s="2">
+      <c r="Z24" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="P24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q24" s="2"/>
-      <c r="R24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4492,13 +4887,13 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
@@ -4507,7 +4902,7 @@
         <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4521,21 +4916,21 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>77</v>
+        <v>238</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -4582,13 +4977,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>243</v>
+        <v>77</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4606,13 +5001,13 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>77</v>
@@ -4621,10 +5016,10 @@
         <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>77</v>
+        <v>244</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4635,10 +5030,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4658,21 +5053,23 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4720,7 +5117,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4741,7 +5138,7 @@
         <v>251</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4763,7 +5160,7 @@
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
@@ -4772,18 +5169,20 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>159</v>
+        <v>253</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4838,7 +5237,7 @@
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>77</v>
@@ -4847,7 +5246,7 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>77</v>
+        <v>257</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -4861,14 +5260,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>256</v>
+        <v>77</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4884,21 +5283,21 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4946,7 +5345,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4961,13 +5360,13 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -4975,10 +5374,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4989,7 +5388,7 @@
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
@@ -4998,21 +5397,23 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5060,13 +5461,13 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
@@ -5075,13 +5476,13 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5089,10 +5490,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5103,7 +5504,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -5112,23 +5513,21 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5152,13 +5551,13 @@
         <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>77</v>
@@ -5176,13 +5575,13 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
@@ -5191,13 +5590,13 @@
         <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5205,10 +5604,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5228,23 +5627,21 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5292,7 +5689,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5307,13 +5704,13 @@
         <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5321,10 +5718,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5335,7 +5732,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5347,18 +5744,16 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>283</v>
-      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5382,37 +5777,37 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>280</v>
-      </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
@@ -5435,21 +5830,21 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>77</v>
+        <v>289</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5461,16 +5856,18 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5518,13 +5915,13 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
@@ -5533,24 +5930,24 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>77</v>
+        <v>293</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5561,7 +5958,7 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5573,15 +5970,17 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>220</v>
+        <v>295</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5630,13 +6029,13 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
@@ -5645,13 +6044,13 @@
         <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>77</v>
+        <v>299</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5659,10 +6058,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5673,7 +6072,7 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -5685,16 +6084,20 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>220</v>
+        <v>295</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5742,13 +6145,13 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
@@ -5757,24 +6160,24 @@
         <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>297</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5785,7 +6188,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5794,19 +6197,23 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>220</v>
+        <v>307</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
       </c>
@@ -5854,13 +6261,13 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>77</v>
@@ -5869,24 +6276,24 @@
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>297</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5909,19 +6316,17 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -5946,13 +6351,13 @@
         <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>77</v>
+        <v>317</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>77</v>
+        <v>318</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>77</v>
@@ -5970,7 +6375,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5999,10 +6404,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6025,13 +6430,13 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>308</v>
+        <v>253</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6082,7 +6487,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6106,15 +6511,15 @@
         <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>77</v>
+        <v>323</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6125,7 +6530,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
@@ -6134,21 +6539,19 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>314</v>
-      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6196,13 +6599,13 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>77</v>
@@ -6225,10 +6628,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6239,7 +6642,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
@@ -6248,16 +6651,16 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6284,13 +6687,13 @@
         <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>318</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>319</v>
+        <v>77</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>77</v>
@@ -6308,13 +6711,13 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
@@ -6332,15 +6735,15 @@
         <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>77</v>
+        <v>330</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6351,7 +6754,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
@@ -6360,16 +6763,16 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6396,13 +6799,13 @@
         <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>323</v>
+        <v>77</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>324</v>
+        <v>77</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>77</v>
@@ -6420,13 +6823,13 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>77</v>
@@ -6444,15 +6847,15 @@
         <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>77</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6472,19 +6875,23 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>239</v>
+        <v>335</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6508,13 +6915,13 @@
         <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>329</v>
+        <v>77</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>77</v>
@@ -6532,7 +6939,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6561,10 +6968,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6575,7 +6982,7 @@
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
@@ -6584,20 +6991,18 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>159</v>
+        <v>341</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6646,13 +7051,13 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
@@ -6675,10 +7080,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6701,18 +7106,18 @@
         <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>159</v>
+        <v>259</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6760,7 +7165,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6789,10 +7194,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6815,18 +7220,16 @@
         <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>226</v>
+        <v>272</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>341</v>
-      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
       </c>
@@ -6850,13 +7253,13 @@
         <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>77</v>
+        <v>351</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>77</v>
+        <v>352</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>77</v>
@@ -6874,7 +7277,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6903,10 +7306,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6929,13 +7332,13 @@
         <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>226</v>
+        <v>272</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6962,13 +7365,13 @@
         <v>77</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>77</v>
+        <v>356</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>77</v>
+        <v>357</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>77</v>
@@ -6986,7 +7389,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7015,10 +7418,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7029,7 +7432,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -7041,18 +7444,16 @@
         <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>348</v>
-      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7076,13 +7477,13 @@
         <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>183</v>
+        <v>234</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>77</v>
@@ -7100,13 +7501,13 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>77</v>
@@ -7129,10 +7530,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7143,7 +7544,7 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>77</v>
@@ -7155,18 +7556,18 @@
         <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7214,13 +7615,13 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>77</v>
@@ -7243,10 +7644,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7269,18 +7670,18 @@
         <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7328,7 +7729,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7357,10 +7758,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7371,7 +7772,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7380,19 +7781,21 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>360</v>
+        <v>259</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7440,13 +7843,13 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
@@ -7469,10 +7872,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7492,16 +7895,16 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>159</v>
+        <v>259</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7552,7 +7955,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7564,7 +7967,7 @@
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>77</v>
@@ -7576,26 +7979,26 @@
         <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>367</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
@@ -7604,21 +8007,21 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>132</v>
+        <v>272</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>133</v>
+        <v>379</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7642,13 +8045,13 @@
         <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>77</v>
+        <v>382</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>77</v>
+        <v>383</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>77</v>
@@ -7666,19 +8069,19 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
@@ -7690,19 +8093,19 @@
         <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>367</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>372</v>
+        <v>77</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7715,25 +8118,23 @@
         <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>141</v>
+        <v>386</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7782,7 +8183,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7794,7 +8195,7 @@
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
@@ -7806,15 +8207,15 @@
         <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7834,19 +8235,21 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
       </c>
@@ -7894,7 +8297,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7923,10 +8326,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7937,7 +8340,7 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
@@ -7949,13 +8352,13 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>159</v>
+        <v>392</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8006,13 +8409,13 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>77</v>
@@ -8035,10 +8438,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8049,7 +8452,7 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
@@ -8061,13 +8464,13 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>360</v>
+        <v>192</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8118,19 +8521,19 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
@@ -8142,15 +8545,15 @@
         <v>77</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>77</v>
+        <v>399</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8161,7 +8564,7 @@
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>77</v>
@@ -8173,13 +8576,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>364</v>
+        <v>132</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>365</v>
+        <v>133</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8218,31 +8621,29 @@
         <v>77</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC57" s="2"/>
       <c r="AD57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>77</v>
@@ -8254,26 +8655,28 @@
         <v>77</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>367</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="C58" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="D58" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8285,16 +8688,16 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>132</v>
+        <v>404</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>133</v>
+        <v>405</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>135</v>
+        <v>407</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8344,7 +8747,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8353,7 +8756,7 @@
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>137</v>
@@ -8368,19 +8771,21 @@
         <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>367</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="D59" t="s" s="2">
-        <v>372</v>
+        <v>77</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8393,26 +8798,24 @@
         <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>132</v>
+        <v>410</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>373</v>
+        <v>411</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8460,7 +8863,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8469,7 +8872,7 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>137</v>
@@ -8484,17 +8887,19 @@
         <v>77</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8515,15 +8920,17 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>239</v>
+        <v>415</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8548,13 +8955,13 @@
         <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>391</v>
+        <v>77</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>392</v>
+        <v>77</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>77</v>
@@ -8572,19 +8979,19 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>77</v>
@@ -8601,12 +9008,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="D61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8627,15 +9036,17 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>159</v>
+        <v>415</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -8684,19 +9095,19 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>77</v>
@@ -8713,18 +9124,20 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="C62" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="D62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>86</v>
@@ -8739,16 +9152,16 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8798,19 +9211,19 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>77</v>
@@ -8827,12 +9240,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="D63" t="s" s="2">
         <v>77</v>
       </c>
@@ -8841,7 +9256,7 @@
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>77</v>
@@ -8853,15 +9268,17 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>360</v>
+        <v>425</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -8919,10 +9336,10 @@
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>77</v>
@@ -8939,12 +9356,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="D64" t="s" s="2">
         <v>77</v>
       </c>
@@ -8965,15 +9384,17 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>159</v>
+        <v>430</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>364</v>
+        <v>431</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>77</v>
@@ -9022,19 +9443,19 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>77</v>
@@ -9046,26 +9467,28 @@
         <v>77</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>367</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>405</v>
+        <v>433</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="C65" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="D65" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
@@ -9077,16 +9500,16 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>132</v>
+        <v>434</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>133</v>
+        <v>435</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>369</v>
+        <v>161</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>135</v>
+        <v>436</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9136,7 +9559,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9145,7 +9568,7 @@
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>137</v>
@@ -9160,51 +9583,51 @@
         <v>77</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>367</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>406</v>
+        <v>437</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="C66" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="D66" t="s" s="2">
-        <v>372</v>
+        <v>77</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>132</v>
+        <v>439</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>373</v>
+        <v>440</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9252,7 +9675,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9261,7 +9684,7 @@
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>137</v>
@@ -9276,17 +9699,19 @@
         <v>77</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>407</v>
+        <v>442</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="C67" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="D67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9307,15 +9732,17 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>239</v>
+        <v>444</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>408</v>
+        <v>445</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>77</v>
@@ -9364,19 +9791,19 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>77</v>
@@ -9393,12 +9820,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>410</v>
+        <v>447</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="D68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9407,7 +9836,7 @@
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>77</v>
@@ -9419,15 +9848,17 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>159</v>
+        <v>449</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>411</v>
+        <v>450</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -9476,19 +9907,19 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>77</v>
@@ -9505,42 +9936,46 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>413</v>
+        <v>453</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>413</v>
+        <v>453</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>77</v>
+        <v>454</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>397</v>
+        <v>131</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>414</v>
+        <v>455</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>77</v>
       </c>
@@ -9588,19 +10023,19 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>413</v>
+        <v>457</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>77</v>
@@ -9612,15 +10047,15 @@
         <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>416</v>
+        <v>458</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>416</v>
+        <v>458</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9631,7 +10066,7 @@
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>77</v>
@@ -9643,17 +10078,15 @@
         <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>360</v>
+        <v>272</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>417</v>
+        <v>459</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9702,13 +10135,13 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>416</v>
+        <v>458</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>77</v>
@@ -9731,10 +10164,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>420</v>
+        <v>461</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>420</v>
+        <v>461</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9757,13 +10190,13 @@
         <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>364</v>
+        <v>462</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>365</v>
+        <v>463</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9814,7 +10247,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>366</v>
+        <v>461</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -9826,7 +10259,7 @@
         <v>77</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>77</v>
@@ -9838,19 +10271,19 @@
         <v>77</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>367</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>421</v>
+        <v>464</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>421</v>
+        <v>464</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -9869,17 +10302,15 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>132</v>
+        <v>392</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>133</v>
+        <v>465</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>77</v>
@@ -9928,7 +10359,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>370</v>
+        <v>464</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -9940,7 +10371,7 @@
         <v>77</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>77</v>
@@ -9952,51 +10383,47 @@
         <v>77</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>367</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>422</v>
+        <v>467</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>422</v>
+        <v>467</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>372</v>
+        <v>77</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>77</v>
       </c>
@@ -10044,19 +10471,19 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>77</v>
@@ -10068,15 +10495,15 @@
         <v>77</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>129</v>
+        <v>399</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>423</v>
+        <v>468</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>423</v>
+        <v>468</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10087,7 +10514,7 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>77</v>
@@ -10099,13 +10526,13 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>239</v>
+        <v>131</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>424</v>
+        <v>132</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>425</v>
+        <v>133</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10144,31 +10571,29 @@
         <v>77</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC74" s="2"/>
       <c r="AD74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>77</v>
@@ -10185,12 +10610,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>426</v>
+        <v>469</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="C75" s="2"/>
+        <v>468</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="D75" t="s" s="2">
         <v>77</v>
       </c>
@@ -10211,15 +10638,17 @@
         <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>159</v>
+        <v>470</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>427</v>
+        <v>471</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -10268,19 +10697,19 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>77</v>
@@ -10297,18 +10726,20 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>429</v>
+        <v>474</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>468</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="D76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>86</v>
@@ -10323,15 +10754,17 @@
         <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>397</v>
+        <v>476</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>430</v>
+        <v>477</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>77</v>
@@ -10380,19 +10813,19 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>429</v>
+        <v>401</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>77</v>
@@ -10409,12 +10842,14 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="C77" s="2"/>
+        <v>468</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="D77" t="s" s="2">
         <v>77</v>
       </c>
@@ -10423,7 +10858,7 @@
         <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>77</v>
@@ -10435,16 +10870,16 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>360</v>
+        <v>482</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>433</v>
+        <v>483</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>434</v>
+        <v>484</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>435</v>
+        <v>485</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10494,7 +10929,7 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>432</v>
+        <v>401</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -10503,10 +10938,10 @@
         <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>77</v>
@@ -10523,12 +10958,14 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>436</v>
+        <v>486</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>468</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>487</v>
+      </c>
       <c r="D78" t="s" s="2">
         <v>77</v>
       </c>
@@ -10549,15 +10986,17 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>159</v>
+        <v>488</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>364</v>
+        <v>489</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>77</v>
@@ -10606,19 +11045,19 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>77</v>
@@ -10630,19 +11069,19 @@
         <v>77</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>367</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>437</v>
+        <v>491</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>437</v>
+        <v>491</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>131</v>
+        <v>454</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -10655,24 +11094,26 @@
         <v>77</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>133</v>
+        <v>455</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>369</v>
+        <v>456</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O79" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>77</v>
       </c>
@@ -10720,7 +11161,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>370</v>
+        <v>457</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -10744,51 +11185,47 @@
         <v>77</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>367</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>438</v>
+        <v>492</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>438</v>
+        <v>492</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>372</v>
+        <v>77</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>132</v>
+        <v>272</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>373</v>
+        <v>493</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>77</v>
       </c>
@@ -10812,13 +11249,13 @@
         <v>77</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>77</v>
+        <v>495</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>77</v>
+        <v>496</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>77</v>
@@ -10836,19 +11273,19 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>375</v>
+        <v>492</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>77</v>
@@ -10860,15 +11297,15 @@
         <v>77</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>439</v>
+        <v>497</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>439</v>
+        <v>497</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10891,13 +11328,13 @@
         <v>77</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>440</v>
+        <v>498</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>441</v>
+        <v>499</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10948,7 +11385,7 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>439</v>
+        <v>497</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -10977,10 +11414,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>442</v>
+        <v>500</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>442</v>
+        <v>500</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10988,10 +11425,10 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>77</v>
@@ -11003,15 +11440,17 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>239</v>
+        <v>501</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>443</v>
+        <v>502</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>503</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>504</v>
+      </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>77</v>
@@ -11036,13 +11475,13 @@
         <v>77</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>445</v>
+        <v>77</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>446</v>
+        <v>77</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>77</v>
@@ -11060,13 +11499,13 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>442</v>
+        <v>500</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>77</v>
@@ -11089,10 +11528,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11103,7 +11542,7 @@
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>77</v>
@@ -11115,13 +11554,13 @@
         <v>77</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>159</v>
+        <v>392</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>448</v>
+        <v>506</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>449</v>
+        <v>507</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11172,13 +11611,13 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>77</v>
@@ -11201,10 +11640,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>450</v>
+        <v>508</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>450</v>
+        <v>508</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11212,7 +11651,7 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>86</v>
@@ -11227,13 +11666,13 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11284,10 +11723,10 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>450</v>
+        <v>398</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>86</v>
@@ -11296,18 +11735,2848 @@
         <v>77</v>
       </c>
       <c r="AJ84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AC85" s="2"/>
+      <c r="AD85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="C86" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="D86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="D87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AK84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN84" t="s" s="2">
+      <c r="AK89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AC94" s="2"/>
+      <c r="AD94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="D95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="O95" s="2"/>
+      <c r="P95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="D96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="O96" s="2"/>
+      <c r="P96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="P97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+      <c r="P98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+      <c r="P99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="O101" s="2"/>
+      <c r="P101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AC103" s="2"/>
+      <c r="AD103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="D104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="O104" s="2"/>
+      <c r="P104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="P105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+      <c r="P106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+      <c r="P107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="P108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+      <c r="P109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q109" s="2"/>
+      <c r="R109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN109" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Measure.xlsx
+++ b/StructureDefinition-profile-Measure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3960" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3300" uniqueCount="496">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.1885377-06:00</t>
+    <t>2026-02-17T14:42:26.8399166-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -459,7 +459,7 @@
     <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
   </si>
   <si>
-    <t>Element `Measure.versionAlgorithm[x]` is will have a context of Measure based on following the parent source element upwards and mapping to `Measure`.</t>
+    <t>Element `Measure.versionAlgorithm[x]` has a context of Measure based on following the parent source element upwards and mapping to `Measure`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -482,7 +482,7 @@
     <t>The population basis specifies the type of elements in the population. For a subject-based measure, this is boolean (because the subject and the population basis are the same, and the population criteria define yes/no values for each individual in the population). For measures that have a population basis that is different than the subject, this element specifies the type of the population basis. For example, an encounter-based measure has a subject of Patient and a population basis of Encounter, and the population criteria all return lists of Encounters.</t>
   </si>
   <si>
-    <t>Element `Measure.basis` is will have a context of Measure based on following the parent source element upwards and mapping to `Measure`.</t>
+    <t>Element `Measure.basis` has a context of Measure based on following the parent source element upwards and mapping to `Measure`.</t>
   </si>
   <si>
     <t>Measure.extension:copyrightLabel</t>
@@ -501,7 +501,7 @@
     <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
   </si>
   <si>
-    <t>Element `Measure.copyrightLabel` is will have a context of Measure based on following the parent source element upwards and mapping to `Measure`.</t>
+    <t>Element `Measure.copyrightLabel` has a context of Measure based on following the parent source element upwards and mapping to `Measure`.</t>
   </si>
   <si>
     <t>Measure.extension:scoringUnit</t>
@@ -520,7 +520,7 @@
     <t>Defines the expected units of measure for the measure score. This element SHOULD be specified as a UCUM unit.</t>
   </si>
   <si>
-    <t>Element `Measure.scoringUnit` is will have a context of Measure based on following the parent source element upwards and mapping to `Measure`.</t>
+    <t>Element `Measure.scoringUnit` has a context of Measure based on following the parent source element upwards and mapping to `Measure`.</t>
   </si>
   <si>
     <t>Measure.extension:term</t>
@@ -539,7 +539,7 @@
     <t>Provides a description of an individual term used within the measure.</t>
   </si>
   <si>
-    <t>Element `Measure.term` is will have a context of Measure based on following the parent source element upwards and mapping to `Measure`.</t>
+    <t>Element `Measure.term` has a context of Measure based on following the parent source element upwards and mapping to `Measure`.</t>
   </si>
   <si>
     <t>Measure.modifierExtension</t>
@@ -1262,167 +1262,20 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Measure.group.extension:linkId</t>
-  </si>
-  <si>
-    <t>linkId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group.linkId|0.0.1-snapshot-3}
+    <t>Measure.group.extension:group</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Measure.group.linkId from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>An identifier that is unique within the Measure allowing linkage to the equivalent item in a MeasureReport resource.</t>
-  </si>
-  <si>
-    <t>Element `Measure.group.linkId` is will have a context of Measure.group based on following the parent source element upwards and mapping to `Measure`.</t>
-  </si>
-  <si>
-    <t>Measure.group.extension:type</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group.type|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Measure.group.type from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Measure.group.type` is will have a context of Measure.group based on following the parent source element upwards and mapping to `Measure`.</t>
-  </si>
-  <si>
-    <t>Measure.group.extension:subject</t>
-  </si>
-  <si>
-    <t>subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group.subject|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Measure.group.subject[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Measure.group.subject[x]` is will have a context of Measure.group based on following the parent source element upwards and mapping to `Measure`.</t>
-  </si>
-  <si>
-    <t>Measure.group.extension:subjectCanonical</t>
-  </si>
-  <si>
-    <t>subjectCanonical</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/Group in FHIR R4</t>
-  </si>
-  <si>
-    <t>Measure.group.extension:subjectReference</t>
-  </si>
-  <si>
-    <t>subjectReference</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Group in FHIR R4</t>
-  </si>
-  <si>
-    <t>Measure.group.extension:basis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group.basis|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Measure.group.basis from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Measure.group.basis` is will have a context of Measure.group based on following the parent source element upwards and mapping to `Measure`.</t>
-  </si>
-  <si>
-    <t>Measure.group.extension:scoring</t>
-  </si>
-  <si>
-    <t>scoring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group.scoring|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Measure.group.scoring from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Measure.group.scoring` is will have a context of Measure.group based on following the parent source element upwards and mapping to `Measure`.</t>
-  </si>
-  <si>
-    <t>Measure.group.extension:scoringUnit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group.scoringUnit|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Measure.group.scoringUnit from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Measure.group.scoringUnit` is will have a context of Measure.group based on following the parent source element upwards and mapping to `Measure`.</t>
-  </si>
-  <si>
-    <t>Measure.group.extension:rateAggregation</t>
-  </si>
-  <si>
-    <t>rateAggregation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group.rateAggregation|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Measure.group.rateAggregation from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Measure.group.rateAggregation` is will have a context of Measure.group based on following the parent source element upwards and mapping to `Measure`.</t>
-  </si>
-  <si>
-    <t>Measure.group.extension:improvementNotation</t>
-  </si>
-  <si>
-    <t>improvementNotation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group.improvementNotation|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Measure.group.improvementNotation from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Measure.group.improvementNotation` is will have a context of Measure.group based on following the parent source element upwards and mapping to `Measure`.</t>
-  </si>
-  <si>
-    <t>Measure.group.extension:library</t>
-  </si>
-  <si>
-    <t>library</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-canonical|5.2.0}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Measure.group.library from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/Library in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Measure.group.library` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `Measure.group.library` is will have a context of Measure.group based on following the parent source element upwards and mapping to `Measure`.</t>
+    <t>Cross-version extension for Measure.group from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Measure.group` has is mapped to FHIR R4 element `Measure.group`, but has no comparisons.</t>
   </si>
   <si>
     <t>Measure.group.modifierExtension</t>
@@ -1475,75 +1328,10 @@
     <t>Measure.group.population.extension</t>
   </si>
   <si>
-    <t>Measure.group.population.extension:linkId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group.population.linkId|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Measure.group.population.linkId from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>An identifier that is unique within the Measure allowing linkage to the equivalent population in a MeasureReport resource.</t>
-  </si>
-  <si>
-    <t>Element `Measure.group.population.linkId` is will have a context of Measure.group.population based on following the parent source element upwards and mapping to `Measure`.</t>
-  </si>
-  <si>
-    <t>Measure.group.population.extension:inputPopulationId</t>
-  </si>
-  <si>
-    <t>inputPopulationId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group.population.inputPopulationId|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Measure.group.population.inputPopulationId from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The id of a population element in this measure that provides the input for this population criteria. In most cases, the scoring structure of the measure implies specific relationships (e.g. the Numerator uses the Denominator as the source in a proportion scoring). In some cases, however, multiple possible choices exist and must be resolved explicitly. For example in a ratio measure with multiple initial populations, the denominator must specify which population should be used as the starting point.</t>
-  </si>
-  <si>
-    <t>Element `Measure.group.population.inputPopulationId` is will have a context of Measure.group.population based on following the parent source element upwards and mapping to `Measure`.</t>
-  </si>
-  <si>
-    <t>Measure.group.population.extension:aggregateMethod</t>
-  </si>
-  <si>
-    <t>aggregateMethod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group.population.aggregateMethod|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Measure.group.population.aggregateMethod from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Specifies which method should be used to aggregate measure observation values. For most scoring types, this is implied by scoring (e.g. a proportion measure counts members of the populations). For continuous variables, however, this information must be specified to ensure correct calculation.</t>
-  </si>
-  <si>
-    <t>Element `Measure.group.population.aggregateMethod` is will have a context of Measure.group.population based on following the parent source element upwards and mapping to `Measure`.</t>
-  </si>
-  <si>
-    <t>Measure.group.population.extension:groupDefinition</t>
-  </si>
-  <si>
-    <t>groupDefinition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Measure.group.population.groupDefinition from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Measure.group.population.groupDefinition` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Measure.group.population.groupDefinition` is will have a context of Measure.group.population based on following the parent source element upwards and mapping to `Measure`.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Measure.group.population.modifierExtension</t>
@@ -1604,159 +1392,116 @@
     <t>Measure.group.stratifier.extension</t>
   </si>
   <si>
-    <t>Measure.group.stratifier.extension:linkId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group.stratifier.linkId|0.0.1-snapshot-3}
+    <t>Measure.group.stratifier.modifierExtension</t>
+  </si>
+  <si>
+    <t>Measure.group.stratifier.code</t>
+  </si>
+  <si>
+    <t>Meaning of the stratifier</t>
+  </si>
+  <si>
+    <t>Indicates a meaning for the stratifier. This can be as simple as a unique identifier, or it can establish meaning in a broader context by drawing from a terminology, allowing stratifiers to be correlated across measures.</t>
+  </si>
+  <si>
+    <t>Measure.group.stratifier.description</t>
+  </si>
+  <si>
+    <t>The human readable description of this stratifier</t>
+  </si>
+  <si>
+    <t>The human readable description of this stratifier criteria.</t>
+  </si>
+  <si>
+    <t>Measure.group.stratifier.criteria</t>
+  </si>
+  <si>
+    <t>How the measure should be stratified</t>
+  </si>
+  <si>
+    <t>An expression that specifies the criteria for the stratifier. This is typically the name of an expression defined within a referenced library, but it may also be a path to a stratifier element.</t>
+  </si>
+  <si>
+    <t>Measure.group.stratifier.component</t>
+  </si>
+  <si>
+    <t>Stratifier criteria component for the measure</t>
+  </si>
+  <si>
+    <t>A component of the stratifier criteria for the measure report, specified as either the name of a valid CQL expression defined within a referenced library or a valid FHIR Resource Path.</t>
+  </si>
+  <si>
+    <t>Stratifiers are defined either as a single criteria, or as a set of component criteria.</t>
+  </si>
+  <si>
+    <t>Measure.group.stratifier.component.id</t>
+  </si>
+  <si>
+    <t>Measure.group.stratifier.component.extension</t>
+  </si>
+  <si>
+    <t>Measure.group.stratifier.component.modifierExtension</t>
+  </si>
+  <si>
+    <t>Measure.group.stratifier.component.code</t>
+  </si>
+  <si>
+    <t>Meaning of the stratifier component</t>
+  </si>
+  <si>
+    <t>Indicates a meaning for the stratifier component. This can be as simple as a unique identifier, or it can establish meaning in a broader context by drawing from a terminology, allowing stratifiers to be correlated across measures.</t>
+  </si>
+  <si>
+    <t>Measure.group.stratifier.component.description</t>
+  </si>
+  <si>
+    <t>The human readable description of this stratifier component</t>
+  </si>
+  <si>
+    <t>The human readable description of this stratifier criteria component.</t>
+  </si>
+  <si>
+    <t>Measure.group.stratifier.component.criteria</t>
+  </si>
+  <si>
+    <t>Component of how the measure should be stratified</t>
+  </si>
+  <si>
+    <t>An expression that specifies the criteria for this component of the stratifier. This is typically the name of an expression defined within a referenced library, but it may also be a path to a stratifier element.</t>
+  </si>
+  <si>
+    <t>Measure.supplementalData</t>
+  </si>
+  <si>
+    <t>What other data should be reported with the measure</t>
+  </si>
+  <si>
+    <t>The supplemental data criteria for the measure report, specified as either the name of a valid CQL expression within a referenced library, or a valid FHIR Resource Path.</t>
+  </si>
+  <si>
+    <t>Note that supplemental data are reported as observations for each patient and included in the evaluatedResources bundle. See the MeasureReport resource or the Quality Reporting topic for more information.</t>
+  </si>
+  <si>
+    <t>Measure.supplementalData.id</t>
+  </si>
+  <si>
+    <t>Measure.supplementalData.extension</t>
+  </si>
+  <si>
+    <t>Measure.supplementalData.extension:supplementalData</t>
+  </si>
+  <si>
+    <t>supplementalData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.supplementalData|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Measure.group.stratifier.linkId from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Measure.group.stratifier.linkId` is will have a context of Measure.group.stratifier based on following the parent source element upwards and mapping to `Measure`.</t>
-  </si>
-  <si>
-    <t>Measure.group.stratifier.extension:groupDefinition</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Measure.group.stratifier.groupDefinition from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Measure.group.stratifier.groupDefinition` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Measure.group.stratifier.groupDefinition` is will have a context of Measure.group.stratifier based on following the parent source element upwards and mapping to `Measure`.</t>
-  </si>
-  <si>
-    <t>Measure.group.stratifier.modifierExtension</t>
-  </si>
-  <si>
-    <t>Measure.group.stratifier.code</t>
-  </si>
-  <si>
-    <t>Meaning of the stratifier</t>
-  </si>
-  <si>
-    <t>Indicates a meaning for the stratifier. This can be as simple as a unique identifier, or it can establish meaning in a broader context by drawing from a terminology, allowing stratifiers to be correlated across measures.</t>
-  </si>
-  <si>
-    <t>Measure.group.stratifier.description</t>
-  </si>
-  <si>
-    <t>The human readable description of this stratifier</t>
-  </si>
-  <si>
-    <t>The human readable description of this stratifier criteria.</t>
-  </si>
-  <si>
-    <t>Measure.group.stratifier.criteria</t>
-  </si>
-  <si>
-    <t>How the measure should be stratified</t>
-  </si>
-  <si>
-    <t>An expression that specifies the criteria for the stratifier. This is typically the name of an expression defined within a referenced library, but it may also be a path to a stratifier element.</t>
-  </si>
-  <si>
-    <t>Measure.group.stratifier.component</t>
-  </si>
-  <si>
-    <t>Stratifier criteria component for the measure</t>
-  </si>
-  <si>
-    <t>A component of the stratifier criteria for the measure report, specified as either the name of a valid CQL expression defined within a referenced library or a valid FHIR Resource Path.</t>
-  </si>
-  <si>
-    <t>Stratifiers are defined either as a single criteria, or as a set of component criteria.</t>
-  </si>
-  <si>
-    <t>Measure.group.stratifier.component.id</t>
-  </si>
-  <si>
-    <t>Measure.group.stratifier.component.extension</t>
-  </si>
-  <si>
-    <t>Measure.group.stratifier.component.extension:linkId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group.stratifier.component.linkId|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Measure.group.stratifier.component.linkId from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Measure.group.stratifier.component.linkId` is will have a context of Measure.group.stratifier.component based on following the parent source element upwards and mapping to `Measure`.</t>
-  </si>
-  <si>
-    <t>Measure.group.stratifier.component.extension:groupDefinition</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Measure.group.stratifier.component.groupDefinition from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Measure.group.stratifier.component.groupDefinition` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Measure.group.stratifier.component.groupDefinition` is will have a context of Measure.group.stratifier.component based on following the parent source element upwards and mapping to `Measure`.</t>
-  </si>
-  <si>
-    <t>Measure.group.stratifier.component.modifierExtension</t>
-  </si>
-  <si>
-    <t>Measure.group.stratifier.component.code</t>
-  </si>
-  <si>
-    <t>Meaning of the stratifier component</t>
-  </si>
-  <si>
-    <t>Indicates a meaning for the stratifier component. This can be as simple as a unique identifier, or it can establish meaning in a broader context by drawing from a terminology, allowing stratifiers to be correlated across measures.</t>
-  </si>
-  <si>
-    <t>Measure.group.stratifier.component.description</t>
-  </si>
-  <si>
-    <t>The human readable description of this stratifier component</t>
-  </si>
-  <si>
-    <t>The human readable description of this stratifier criteria component.</t>
-  </si>
-  <si>
-    <t>Measure.group.stratifier.component.criteria</t>
-  </si>
-  <si>
-    <t>Component of how the measure should be stratified</t>
-  </si>
-  <si>
-    <t>An expression that specifies the criteria for this component of the stratifier. This is typically the name of an expression defined within a referenced library, but it may also be a path to a stratifier element.</t>
-  </si>
-  <si>
-    <t>Measure.supplementalData</t>
-  </si>
-  <si>
-    <t>What other data should be reported with the measure</t>
-  </si>
-  <si>
-    <t>The supplemental data criteria for the measure report, specified as either the name of a valid CQL expression within a referenced library, or a valid FHIR Resource Path.</t>
-  </si>
-  <si>
-    <t>Note that supplemental data are reported as observations for each patient and included in the evaluatedResources bundle. See the MeasureReport resource or the Quality Reporting topic for more information.</t>
-  </si>
-  <si>
-    <t>Measure.supplementalData.id</t>
-  </si>
-  <si>
-    <t>Measure.supplementalData.extension</t>
-  </si>
-  <si>
-    <t>Measure.supplementalData.extension:linkId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.supplementalData.linkId|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Measure.supplementalData.linkId from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Measure.supplementalData.linkId` is will have a context of Measure.supplementalData based on following the parent source element upwards and mapping to `Measure`.</t>
+    <t>Cross-version extension for Measure.supplementalData from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Measure.supplementalData` has is mapped to FHIR R4 element `Measure.supplementalData`, but has no comparisons.</t>
   </si>
   <si>
     <t>Measure.supplementalData.modifierExtension</t>
@@ -2108,7 +1853,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN109"/>
+  <dimension ref="A1:AN91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2117,9 +1862,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.8984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.83203125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="45.51953125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.96484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="15.6640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2127,7 +1872,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="104.625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.4140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -8676,7 +8421,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8694,10 +8439,10 @@
         <v>405</v>
       </c>
       <c r="M58" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8776,16 +8521,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="D59" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8798,24 +8541,26 @@
         <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>360</v>
-      </c>
       <c r="N59" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8863,7 +8608,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8872,7 +8617,7 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>137</v>
@@ -8887,19 +8632,17 @@
         <v>77</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8920,17 +8663,15 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>415</v>
+        <v>272</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8979,19 +8720,19 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>77</v>
@@ -9008,14 +8749,12 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
         <v>77</v>
       </c>
@@ -9036,17 +8775,15 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>415</v>
+        <v>192</v>
       </c>
       <c r="L61" t="s" s="2">
         <v>416</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N61" t="s" s="2">
         <v>417</v>
       </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -9095,19 +8832,19 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>77</v>
@@ -9124,14 +8861,12 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
         <v>77</v>
       </c>
@@ -9140,7 +8875,7 @@
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>77</v>
@@ -9152,17 +8887,15 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>77</v>
@@ -9211,7 +8944,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9220,10 +8953,10 @@
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>77</v>
@@ -9240,14 +8973,12 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9268,17 +8999,15 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>425</v>
+        <v>192</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>426</v>
+        <v>396</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -9327,19 +9056,19 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>77</v>
@@ -9351,28 +9080,26 @@
         <v>77</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>77</v>
+        <v>399</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>77</v>
@@ -9384,16 +9111,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>430</v>
+        <v>131</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>350</v>
+        <v>424</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>432</v>
+        <v>173</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9452,7 +9179,7 @@
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>137</v>
@@ -9467,51 +9194,51 @@
         <v>77</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>77</v>
+        <v>399</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>77</v>
+        <v>408</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>434</v>
+        <v>131</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>161</v>
+        <v>410</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="O65" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9559,7 +9286,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9568,7 +9295,7 @@
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>137</v>
@@ -9583,19 +9310,17 @@
         <v>77</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9616,17 +9341,15 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>439</v>
+        <v>272</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -9651,13 +9374,13 @@
         <v>77</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>77</v>
+        <v>429</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>77</v>
+        <v>430</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>77</v>
@@ -9675,19 +9398,19 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>77</v>
@@ -9704,14 +9427,12 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9732,17 +9453,15 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>444</v>
+        <v>192</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>77</v>
@@ -9791,19 +9510,19 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>77</v>
@@ -9820,23 +9539,21 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>77</v>
@@ -9848,16 +9565,16 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9907,19 +9624,19 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>401</v>
+        <v>434</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>77</v>
@@ -9936,14 +9653,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>454</v>
+        <v>77</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9956,26 +9673,22 @@
         <v>77</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>131</v>
+        <v>392</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>77</v>
       </c>
@@ -10023,7 +9736,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10035,7 +9748,7 @@
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>77</v>
@@ -10047,15 +9760,15 @@
         <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10078,13 +9791,13 @@
         <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>272</v>
+        <v>192</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>459</v>
+        <v>396</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>460</v>
+        <v>397</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10135,7 +9848,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>458</v>
+        <v>398</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10147,7 +9860,7 @@
         <v>77</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>77</v>
@@ -10159,26 +9872,26 @@
         <v>77</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>77</v>
+        <v>399</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>77</v>
@@ -10190,15 +9903,17 @@
         <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>77</v>
@@ -10247,19 +9962,19 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>461</v>
+        <v>401</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>77</v>
@@ -10271,19 +9986,19 @@
         <v>77</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>77</v>
+        <v>399</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>77</v>
+        <v>408</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10296,22 +10011,26 @@
         <v>77</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>392</v>
+        <v>131</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>465</v>
+        <v>409</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>77</v>
       </c>
@@ -10359,7 +10078,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>464</v>
+        <v>411</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10371,7 +10090,7 @@
         <v>77</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>77</v>
@@ -10383,15 +10102,15 @@
         <v>77</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>467</v>
+        <v>445</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>467</v>
+        <v>445</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10414,13 +10133,13 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>192</v>
+        <v>272</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>397</v>
+        <v>447</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10471,7 +10190,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>398</v>
+        <v>445</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10483,7 +10202,7 @@
         <v>77</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>77</v>
@@ -10495,15 +10214,15 @@
         <v>77</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>399</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10514,7 +10233,7 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>77</v>
@@ -10526,13 +10245,13 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>132</v>
+        <v>449</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>133</v>
+        <v>450</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10571,29 +10290,31 @@
         <v>77</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC74" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>401</v>
+        <v>448</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>77</v>
@@ -10610,14 +10331,12 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
         <v>77</v>
       </c>
@@ -10638,17 +10357,15 @@
         <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>470</v>
+        <v>435</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -10697,19 +10414,19 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>77</v>
@@ -10726,14 +10443,12 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
         <v>77</v>
       </c>
@@ -10742,7 +10457,7 @@
         <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>77</v>
@@ -10754,16 +10469,16 @@
         <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>476</v>
+        <v>392</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>478</v>
+        <v>456</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10813,7 +10528,7 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>401</v>
+        <v>454</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -10822,10 +10537,10 @@
         <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>77</v>
@@ -10842,14 +10557,12 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>480</v>
+        <v>458</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>481</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
         <v>77</v>
       </c>
@@ -10870,17 +10583,15 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>482</v>
+        <v>192</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>483</v>
+        <v>396</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>77</v>
@@ -10929,19 +10640,19 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>77</v>
@@ -10953,28 +10664,26 @@
         <v>77</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>77</v>
+        <v>399</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>486</v>
+        <v>459</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>77</v>
@@ -10986,16 +10695,16 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>488</v>
+        <v>131</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>489</v>
+        <v>423</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>490</v>
+        <v>173</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11069,19 +10778,19 @@
         <v>77</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>77</v>
+        <v>399</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>454</v>
+        <v>408</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11103,10 +10812,10 @@
         <v>131</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>455</v>
+        <v>409</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>456</v>
+        <v>410</v>
       </c>
       <c r="N79" t="s" s="2">
         <v>173</v>
@@ -11161,7 +10870,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11190,10 +10899,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>492</v>
+        <v>461</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>492</v>
+        <v>461</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11219,10 +10928,10 @@
         <v>272</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>493</v>
+        <v>462</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>494</v>
+        <v>463</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11249,13 +10958,13 @@
         <v>77</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>495</v>
+        <v>77</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>496</v>
+        <v>77</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>77</v>
@@ -11273,7 +10982,7 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>492</v>
+        <v>461</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11302,10 +11011,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>497</v>
+        <v>464</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>497</v>
+        <v>464</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11331,10 +11040,10 @@
         <v>192</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>498</v>
+        <v>465</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>499</v>
+        <v>466</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11385,7 +11094,7 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>497</v>
+        <v>464</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11414,10 +11123,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11440,17 +11149,15 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>501</v>
+        <v>435</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>502</v>
+        <v>468</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>504</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>77</v>
@@ -11499,7 +11206,7 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>86</v>
@@ -11528,10 +11235,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>505</v>
+        <v>470</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>505</v>
+        <v>470</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11557,12 +11264,14 @@
         <v>392</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>506</v>
+        <v>471</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>77</v>
@@ -11611,7 +11320,7 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>505</v>
+        <v>470</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -11640,10 +11349,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>508</v>
+        <v>474</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>508</v>
+        <v>474</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11752,10 +11461,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>509</v>
+        <v>475</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>509</v>
+        <v>475</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11862,13 +11571,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>510</v>
+        <v>476</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>509</v>
+        <v>475</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>403</v>
+        <v>477</v>
       </c>
       <c r="D86" t="s" s="2">
         <v>77</v>
@@ -11878,7 +11587,7 @@
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>77</v>
@@ -11890,16 +11599,16 @@
         <v>77</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>511</v>
+        <v>478</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>406</v>
+        <v>472</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -11978,46 +11687,46 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>514</v>
+        <v>481</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="C87" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>77</v>
+        <v>408</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>488</v>
+        <v>131</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>515</v>
+        <v>409</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="O87" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>77</v>
       </c>
@@ -12065,7 +11774,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -12089,51 +11798,47 @@
         <v>77</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>517</v>
+        <v>482</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>517</v>
+        <v>482</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>454</v>
+        <v>77</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>131</v>
+        <v>272</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>455</v>
+        <v>483</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>77</v>
       </c>
@@ -12181,19 +11886,19 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>77</v>
@@ -12205,15 +11910,15 @@
         <v>77</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>518</v>
+        <v>485</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>518</v>
+        <v>485</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12224,7 +11929,7 @@
         <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>77</v>
@@ -12239,10 +11944,10 @@
         <v>272</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>519</v>
+        <v>486</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>520</v>
+        <v>487</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12269,13 +11974,13 @@
         <v>77</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>77</v>
+        <v>488</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>77</v>
+        <v>489</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>77</v>
@@ -12293,13 +11998,13 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>518</v>
+        <v>485</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>77</v>
@@ -12322,10 +12027,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>521</v>
+        <v>490</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>521</v>
+        <v>490</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12351,10 +12056,10 @@
         <v>192</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>522</v>
+        <v>491</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>523</v>
+        <v>492</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12405,7 +12110,7 @@
         <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>521</v>
+        <v>490</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -12434,10 +12139,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>524</v>
+        <v>493</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>524</v>
+        <v>493</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12445,7 +12150,7 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>86</v>
@@ -12460,13 +12165,13 @@
         <v>77</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>501</v>
+        <v>435</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>525</v>
+        <v>494</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>526</v>
+        <v>495</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12517,10 +12222,10 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>524</v>
+        <v>493</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>86</v>
@@ -12541,2042 +12246,6 @@
         <v>77</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="O92" s="2"/>
-      <c r="P92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q92" s="2"/>
-      <c r="R92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
-      <c r="P93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q93" s="2"/>
-      <c r="R93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E94" s="2"/>
-      <c r="F94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
-      <c r="P94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q94" s="2"/>
-      <c r="R94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC94" s="2"/>
-      <c r="AD94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="C95" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="D95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E95" s="2"/>
-      <c r="F95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="O95" s="2"/>
-      <c r="P95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q95" s="2"/>
-      <c r="R95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="C96" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="D96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="O96" s="2"/>
-      <c r="P96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q96" s="2"/>
-      <c r="R96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="P97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q97" s="2"/>
-      <c r="R97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E98" s="2"/>
-      <c r="F98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
-      <c r="P98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q98" s="2"/>
-      <c r="R98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E99" s="2"/>
-      <c r="F99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
-      <c r="P99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q99" s="2"/>
-      <c r="R99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E100" s="2"/>
-      <c r="F100" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
-      <c r="P100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q100" s="2"/>
-      <c r="R100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E101" s="2"/>
-      <c r="F101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="O101" s="2"/>
-      <c r="P101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q101" s="2"/>
-      <c r="R101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
-      <c r="P102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q102" s="2"/>
-      <c r="R102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N103" s="2"/>
-      <c r="O103" s="2"/>
-      <c r="P103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q103" s="2"/>
-      <c r="R103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC103" s="2"/>
-      <c r="AD103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="C104" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="D104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E104" s="2"/>
-      <c r="F104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="O104" s="2"/>
-      <c r="P104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q104" s="2"/>
-      <c r="R104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="C105" s="2"/>
-      <c r="D105" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="E105" s="2"/>
-      <c r="F105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="P105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q105" s="2"/>
-      <c r="R105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E106" s="2"/>
-      <c r="F106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
-      <c r="P106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q106" s="2"/>
-      <c r="R106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="C107" s="2"/>
-      <c r="D107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E107" s="2"/>
-      <c r="F107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
-      <c r="P107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q107" s="2"/>
-      <c r="R107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E108" s="2"/>
-      <c r="F108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
-      <c r="P108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q108" s="2"/>
-      <c r="R108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E109" s="2"/>
-      <c r="F109" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="N109" s="2"/>
-      <c r="O109" s="2"/>
-      <c r="P109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q109" s="2"/>
-      <c r="R109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN109" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Measure.xlsx
+++ b/StructureDefinition-profile-Measure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8399166-06:00</t>
+    <t>2026-02-20T11:59:20.8649926-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Measure|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Measure</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -443,46 +443,65 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Measure.extension:versionAlgorithm</t>
-  </si>
-  <si>
-    <t>versionAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.versionAlgorithm|0.0.1-snapshot-3}
+    <t>Measure.extension:basis</t>
+  </si>
+  <si>
+    <t>basis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.basis}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Measure.versionAlgorithm[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
-  </si>
-  <si>
-    <t>Element `Measure.versionAlgorithm[x]` has a context of Measure based on following the parent source element upwards and mapping to `Measure`.</t>
+    <t>Cross-version extension for Measure.basis from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The population basis specifies the type of elements in the population. For a subject-based measure, this is boolean (because the subject and the population basis are the same, and the population criteria define yes/no values for each individual in the population). For measures that have a population basis that is different than the subject, this element specifies the type of the population basis. For example, an encounter-based measure has a subject of Patient and a population basis of Encounter, and the population criteria all return lists of Encounters.</t>
+  </si>
+  <si>
+    <t>Element `Measure.basis` has a context of Measure based on following the parent source element upwards and mapping to `Measure`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>Measure.extension:basis</t>
-  </si>
-  <si>
-    <t>basis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.basis|0.0.1-snapshot-3}
+    <t>Measure.extension:scoringUnit</t>
+  </si>
+  <si>
+    <t>scoringUnit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.scoringUnit}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Measure.basis from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The population basis specifies the type of elements in the population. For a subject-based measure, this is boolean (because the subject and the population basis are the same, and the population criteria define yes/no values for each individual in the population). For measures that have a population basis that is different than the subject, this element specifies the type of the population basis. For example, an encounter-based measure has a subject of Patient and a population basis of Encounter, and the population criteria all return lists of Encounters.</t>
-  </si>
-  <si>
-    <t>Element `Measure.basis` has a context of Measure based on following the parent source element upwards and mapping to `Measure`.</t>
+    <t>Cross-version extension for Measure.scoringUnit from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Defines the expected units of measure for the measure score. This element SHOULD be specified as a UCUM unit.</t>
+  </si>
+  <si>
+    <t>Element `Measure.scoringUnit` has a context of Measure based on following the parent source element upwards and mapping to `Measure`.</t>
+  </si>
+  <si>
+    <t>Measure.extension:term</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.term}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Measure.term from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Provides a description of an individual term used within the measure.</t>
+  </si>
+  <si>
+    <t>Element `Measure.term` has a context of Measure based on following the parent source element upwards and mapping to `Measure`.</t>
   </si>
   <si>
     <t>Measure.extension:copyrightLabel</t>
@@ -491,7 +510,7 @@
     <t>copyrightLabel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.copyrightLabel|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {artifact-copyrightLabel}
 </t>
   </si>
   <si>
@@ -501,45 +520,28 @@
     <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
   </si>
   <si>
-    <t>Element `Measure.copyrightLabel` has a context of Measure based on following the parent source element upwards and mapping to `Measure`.</t>
-  </si>
-  <si>
-    <t>Measure.extension:scoringUnit</t>
-  </si>
-  <si>
-    <t>scoringUnit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.scoringUnit|0.0.1-snapshot-3}
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Measure.copyrightLabel`: `http://hl7.org/fhir/StructureDefinition/artifact-copyrightLabel`.
+Element `Measure.copyrightLabel` has a context of Measure based on following the parent source element upwards and mapping to `Measure`.</t>
+  </si>
+  <si>
+    <t>Measure.extension:versionAlgorithm</t>
+  </si>
+  <si>
+    <t>versionAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Measure.scoringUnit from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Defines the expected units of measure for the measure score. This element SHOULD be specified as a UCUM unit.</t>
-  </si>
-  <si>
-    <t>Element `Measure.scoringUnit` has a context of Measure based on following the parent source element upwards and mapping to `Measure`.</t>
-  </si>
-  <si>
-    <t>Measure.extension:term</t>
-  </si>
-  <si>
-    <t>term</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.term|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Measure.term from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Provides a description of an individual term used within the measure.</t>
-  </si>
-  <si>
-    <t>Element `Measure.term` has a context of Measure based on following the parent source element upwards and mapping to `Measure`.</t>
+    <t>Cross-version extension for Measure.versionAlgorithm[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Measure.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
+Element `Measure.versionAlgorithm[x]` has a context of Measure based on following the parent source element upwards and mapping to `Measure`.</t>
   </si>
   <si>
     <t>Measure.modifierExtension</t>
@@ -1268,7 +1270,7 @@
     <t>group</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group}
 </t>
   </si>
   <si>
@@ -1494,7 +1496,7 @@
     <t>supplementalData</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.supplementalData|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.supplementalData}
 </t>
   </si>
   <si>
@@ -1872,7 +1874,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="90.4140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3179,7 +3181,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -3375,7 +3377,7 @@
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>137</v>
@@ -3411,7 +3413,7 @@
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
@@ -3491,7 +3493,7 @@
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>137</v>
@@ -7875,7 +7877,7 @@
         <v>385</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">

--- a/StructureDefinition-profile-Measure.xlsx
+++ b/StructureDefinition-profile-Measure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3300" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3738" uniqueCount="546">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.8649926-06:00</t>
+    <t>2026-02-21T13:36:54.2690087-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Measure</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Measure|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -449,7 +449,7 @@
     <t>basis</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.basis}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.basis|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -472,7 +472,7 @@
     <t>scoringUnit</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.scoringUnit}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.scoringUnit|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -491,7 +491,7 @@
     <t>term</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.term}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.term|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -502,46 +502,6 @@
   </si>
   <si>
     <t>Element `Measure.term` has a context of Measure based on following the parent source element upwards and mapping to `Measure`.</t>
-  </si>
-  <si>
-    <t>Measure.extension:copyrightLabel</t>
-  </si>
-  <si>
-    <t>copyrightLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-copyrightLabel}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Measure.copyrightLabel from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Measure.copyrightLabel`: `http://hl7.org/fhir/StructureDefinition/artifact-copyrightLabel`.
-Element `Measure.copyrightLabel` has a context of Measure based on following the parent source element upwards and mapping to `Measure`.</t>
-  </si>
-  <si>
-    <t>Measure.extension:versionAlgorithm</t>
-  </si>
-  <si>
-    <t>versionAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Measure.versionAlgorithm[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Measure.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
-Element `Measure.versionAlgorithm[x]` has a context of Measure based on following the parent source element upwards and mapping to `Measure`.</t>
   </si>
   <si>
     <t>Measure.modifierExtension</t>
@@ -1264,20 +1224,147 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Measure.group.extension:group</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group}
+    <t>Measure.group.extension:linkId</t>
+  </si>
+  <si>
+    <t>linkId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group.linkId|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Measure.group from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Measure.group` has is mapped to FHIR R4 element `Measure.group`, but has no comparisons.</t>
+    <t>Cross-version extension for Measure.group.linkId from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An identifier that is unique within the Measure allowing linkage to the equivalent item in a MeasureReport resource.</t>
+  </si>
+  <si>
+    <t>Element `Measure.group.linkId` has a context of Measure.group based on following the parent source element upwards and mapping to `Measure`.</t>
+  </si>
+  <si>
+    <t>Measure.group.extension:type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group.type|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Measure.group.type from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Measure.group.type` has a context of Measure.group based on following the parent source element upwards and mapping to `Measure`.</t>
+  </si>
+  <si>
+    <t>Measure.group.extension:subject</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group.subject|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Measure.group.subject[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Measure.group.subject[x]` has a context of Measure.group based on following the parent source element upwards and mapping to `Measure`.</t>
+  </si>
+  <si>
+    <t>Measure.group.extension:subjectCanonical</t>
+  </si>
+  <si>
+    <t>subjectCanonical</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/Group in FHIR R4</t>
+  </si>
+  <si>
+    <t>Measure.group.extension:subjectReference</t>
+  </si>
+  <si>
+    <t>subjectReference</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Group in FHIR R4</t>
+  </si>
+  <si>
+    <t>Measure.group.extension:basis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group.basis|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Measure.group.basis from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Measure.group.basis` has a context of Measure.group based on following the parent source element upwards and mapping to `Measure`.</t>
+  </si>
+  <si>
+    <t>Measure.group.extension:scoring</t>
+  </si>
+  <si>
+    <t>scoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group.scoring|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Measure.group.scoring from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Measure.group.scoring` has a context of Measure.group based on following the parent source element upwards and mapping to `Measure`.</t>
+  </si>
+  <si>
+    <t>Measure.group.extension:scoringUnit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group.scoringUnit|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Measure.group.scoringUnit from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Measure.group.scoringUnit` has a context of Measure.group based on following the parent source element upwards and mapping to `Measure`.</t>
+  </si>
+  <si>
+    <t>Measure.group.extension:rateAggregation</t>
+  </si>
+  <si>
+    <t>rateAggregation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group.rateAggregation|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Measure.group.rateAggregation from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Measure.group.rateAggregation` has a context of Measure.group based on following the parent source element upwards and mapping to `Measure`.</t>
+  </si>
+  <si>
+    <t>Measure.group.extension:improvementNotation</t>
+  </si>
+  <si>
+    <t>improvementNotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group.improvementNotation|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Measure.group.improvementNotation from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Measure.group.improvementNotation` has a context of Measure.group based on following the parent source element upwards and mapping to `Measure`.</t>
   </si>
   <si>
     <t>Measure.group.modifierExtension</t>
@@ -1330,10 +1417,58 @@
     <t>Measure.group.population.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Measure.group.population.extension:linkId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group.population.linkId|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Measure.group.population.linkId from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An identifier that is unique within the Measure allowing linkage to the equivalent population in a MeasureReport resource.</t>
+  </si>
+  <si>
+    <t>Element `Measure.group.population.linkId` has a context of Measure.group.population based on following the parent source element upwards and mapping to `Measure`.</t>
+  </si>
+  <si>
+    <t>Measure.group.population.extension:inputPopulationId</t>
+  </si>
+  <si>
+    <t>inputPopulationId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group.population.inputPopulationId|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Measure.group.population.inputPopulationId from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The id of a population element in this measure that provides the input for this population criteria. In most cases, the scoring structure of the measure implies specific relationships (e.g. the Numerator uses the Denominator as the source in a proportion scoring). In some cases, however, multiple possible choices exist and must be resolved explicitly. For example in a ratio measure with multiple initial populations, the denominator must specify which population should be used as the starting point.</t>
+  </si>
+  <si>
+    <t>Element `Measure.group.population.inputPopulationId` has a context of Measure.group.population based on following the parent source element upwards and mapping to `Measure`.</t>
+  </si>
+  <si>
+    <t>Measure.group.population.extension:aggregateMethod</t>
+  </si>
+  <si>
+    <t>aggregateMethod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group.population.aggregateMethod|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Measure.group.population.aggregateMethod from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Specifies which method should be used to aggregate measure observation values. For most scoring types, this is implied by scoring (e.g. a proportion measure counts members of the populations). For continuous variables, however, this information must be specified to ensure correct calculation.</t>
+  </si>
+  <si>
+    <t>Element `Measure.group.population.aggregateMethod` has a context of Measure.group.population based on following the parent source element upwards and mapping to `Measure`.</t>
   </si>
   <si>
     <t>Measure.group.population.modifierExtension</t>
@@ -1394,6 +1529,19 @@
     <t>Measure.group.stratifier.extension</t>
   </si>
   <si>
+    <t>Measure.group.stratifier.extension:linkId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group.stratifier.linkId|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Measure.group.stratifier.linkId from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Measure.group.stratifier.linkId` has a context of Measure.group.stratifier based on following the parent source element upwards and mapping to `Measure`.</t>
+  </si>
+  <si>
     <t>Measure.group.stratifier.modifierExtension</t>
   </si>
   <si>
@@ -1442,6 +1590,19 @@
     <t>Measure.group.stratifier.component.extension</t>
   </si>
   <si>
+    <t>Measure.group.stratifier.component.extension:linkId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.group.stratifier.component.linkId|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Measure.group.stratifier.component.linkId from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Measure.group.stratifier.component.linkId` has a context of Measure.group.stratifier.component based on following the parent source element upwards and mapping to `Measure`.</t>
+  </si>
+  <si>
     <t>Measure.group.stratifier.component.modifierExtension</t>
   </si>
   <si>
@@ -1490,20 +1651,17 @@
     <t>Measure.supplementalData.extension</t>
   </si>
   <si>
-    <t>Measure.supplementalData.extension:supplementalData</t>
-  </si>
-  <si>
-    <t>supplementalData</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.supplementalData}
+    <t>Measure.supplementalData.extension:linkId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.supplementalData.linkId|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Measure.supplementalData from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Measure.supplementalData` has is mapped to FHIR R4 element `Measure.supplementalData`, but has no comparisons.</t>
+    <t>Cross-version extension for Measure.supplementalData.linkId from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Measure.supplementalData.linkId` has a context of Measure.supplementalData based on following the parent source element upwards and mapping to `Measure`.</t>
   </si>
   <si>
     <t>Measure.supplementalData.modifierExtension</t>
@@ -1855,7 +2013,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN91"/>
+  <dimension ref="A1:AN103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1864,9 +2022,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.83203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.80859375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="45.51953125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.6640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="18.96484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1874,7 +2032,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="76.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="104.625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3284,43 +3442,43 @@
         <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3368,7 +3526,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3392,19 +3550,17 @@
         <v>77</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C14" t="s" s="2">
         <v>164</v>
       </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3422,21 +3578,23 @@
         <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3484,25 +3642,25 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -3513,14 +3671,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3533,25 +3691,25 @@
         <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J15" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K15" t="s" s="2">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3600,7 +3758,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3612,27 +3770,27 @@
         <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3655,20 +3813,18 @@
         <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3716,7 +3872,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3731,10 +3887,10 @@
         <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -3745,10 +3901,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3759,7 +3915,7 @@
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
@@ -3771,19 +3927,19 @@
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -3832,28 +3988,28 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3861,10 +4017,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3887,7 +4043,7 @@
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>193</v>
@@ -3946,7 +4102,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3964,7 +4120,7 @@
         <v>196</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3975,10 +4131,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3998,23 +4154,19 @@
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M19" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>202</v>
-      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
       </c>
@@ -4062,7 +4214,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4071,7 +4223,7 @@
         <v>86</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>98</v>
@@ -4091,10 +4243,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4102,7 +4254,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>86</v>
@@ -4111,22 +4263,22 @@
         <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>192</v>
+        <v>106</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4152,13 +4304,13 @@
         <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>77</v>
@@ -4176,10 +4328,10 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>86</v>
@@ -4191,10 +4343,10 @@
         <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -4228,19 +4380,23 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4303,10 +4459,10 @@
         <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -4317,10 +4473,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4328,7 +4484,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>86</v>
@@ -4337,28 +4493,30 @@
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>106</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q22" s="2"/>
+      <c r="Q22" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="R22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4378,34 +4536,34 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="Y22" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>212</v>
-      </c>
       <c r="AG22" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>86</v>
@@ -4417,10 +4575,10 @@
         <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>220</v>
+        <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4431,14 +4589,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4457,20 +4615,18 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4518,7 +4674,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4533,10 +4689,10 @@
         <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4547,10 +4703,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4570,71 +4726,71 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>229</v>
+        <v>180</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q24" t="s" s="2">
+      <c r="Q24" s="2"/>
+      <c r="R24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="R24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4649,10 +4805,10 @@
         <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>77</v>
+        <v>238</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>77</v>
+        <v>239</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4663,21 +4819,21 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -4689,16 +4845,16 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4748,13 +4904,13 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>77</v>
@@ -4763,10 +4919,10 @@
         <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4777,10 +4933,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4803,20 +4959,18 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>192</v>
+        <v>247</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4864,7 +5018,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4879,10 +5033,10 @@
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4930,7 +5084,9 @@
       <c r="N27" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="O27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4993,7 +5149,7 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5007,10 +5163,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5021,7 +5177,7 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -5033,16 +5189,16 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5068,13 +5224,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>77</v>
+        <v>265</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -5092,13 +5248,13 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
@@ -5107,7 +5263,7 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5121,10 +5277,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5135,7 +5291,7 @@
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
@@ -5144,23 +5300,21 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5208,13 +5362,13 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
@@ -5223,13 +5377,13 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>77</v>
+        <v>272</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5237,10 +5391,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5251,7 +5405,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -5260,20 +5414,18 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>272</v>
+        <v>180</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N30" t="s" s="2">
         <v>275</v>
       </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5298,13 +5450,13 @@
         <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>277</v>
+        <v>77</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>77</v>
@@ -5322,13 +5474,13 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
@@ -5337,7 +5489,7 @@
         <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>278</v>
+        <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -5351,14 +5503,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5377,18 +5529,18 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M31" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5436,7 +5588,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5451,13 +5603,13 @@
         <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5465,10 +5617,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5491,15 +5643,17 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>192</v>
+        <v>283</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="N32" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5548,7 +5702,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5563,13 +5717,13 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5584,7 +5738,7 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>289</v>
+        <v>77</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5603,15 +5757,17 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>292</v>
       </c>
@@ -5683,7 +5839,7 @@
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5714,7 +5870,7 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>295</v>
@@ -5728,7 +5884,9 @@
       <c r="N34" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="O34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5791,13 +5949,13 @@
         <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5805,10 +5963,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5819,7 +5977,7 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -5831,17 +5989,15 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N35" t="s" s="2">
         <v>303</v>
       </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>304</v>
       </c>
@@ -5868,13 +6024,13 @@
         <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>77</v>
+        <v>306</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>77</v>
@@ -5892,13 +6048,13 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
@@ -5907,13 +6063,13 @@
         <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>305</v>
+        <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5921,10 +6077,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5935,7 +6091,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5944,23 +6100,19 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>307</v>
+        <v>241</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N36" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="O36" t="s" s="2">
-        <v>311</v>
-      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
       </c>
@@ -6008,13 +6160,13 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>77</v>
@@ -6023,24 +6175,24 @@
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>312</v>
+        <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>77</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6063,18 +6215,16 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>315</v>
-      </c>
       <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>316</v>
-      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
       </c>
@@ -6098,13 +6248,13 @@
         <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>317</v>
+        <v>77</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>318</v>
+        <v>77</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>319</v>
+        <v>77</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>77</v>
@@ -6122,7 +6272,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6151,10 +6301,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6177,13 +6327,13 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6234,7 +6384,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6258,15 +6408,15 @@
         <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6289,13 +6439,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6346,7 +6496,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6370,15 +6520,15 @@
         <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>77</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6401,16 +6551,20 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>253</v>
+        <v>323</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6458,7 +6612,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6482,15 +6636,15 @@
         <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>330</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6513,13 +6667,13 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>253</v>
+        <v>329</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6570,7 +6724,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6594,15 +6748,15 @@
         <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>330</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6613,7 +6767,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6622,22 +6776,20 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -6686,13 +6838,13 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
@@ -6715,10 +6867,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6729,7 +6881,7 @@
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
@@ -6738,16 +6890,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>341</v>
+        <v>260</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6774,13 +6926,13 @@
         <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>77</v>
+        <v>339</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>77</v>
+        <v>340</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>77</v>
@@ -6798,13 +6950,13 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
@@ -6827,10 +6979,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6853,18 +7005,16 @@
         <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>347</v>
-      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6888,13 +7038,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>77</v>
+        <v>344</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>77</v>
+        <v>345</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -6912,7 +7062,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6941,10 +7091,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6955,7 +7105,7 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -6967,13 +7117,13 @@
         <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7000,13 +7150,13 @@
         <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>77</v>
@@ -7024,13 +7174,13 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
@@ -7053,10 +7203,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7079,15 +7229,17 @@
         <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>272</v>
+        <v>180</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -7112,13 +7264,13 @@
         <v>77</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>356</v>
+        <v>77</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>357</v>
+        <v>77</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>77</v>
@@ -7136,7 +7288,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7165,10 +7317,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7179,7 +7331,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -7191,15 +7343,17 @@
         <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>272</v>
+        <v>180</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -7224,13 +7378,13 @@
         <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>361</v>
+        <v>77</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>362</v>
+        <v>77</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>77</v>
@@ -7248,13 +7402,13 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>77</v>
@@ -7277,10 +7431,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7303,18 +7457,18 @@
         <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>192</v>
+        <v>247</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7362,7 +7516,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7391,10 +7545,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7417,17 +7571,15 @@
         <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>192</v>
+        <v>247</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7476,7 +7628,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7505,10 +7657,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7531,17 +7683,17 @@
         <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7566,13 +7718,13 @@
         <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>77</v>
+        <v>370</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>77</v>
+        <v>371</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>77</v>
@@ -7590,7 +7742,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7619,10 +7771,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7633,7 +7785,7 @@
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
@@ -7645,16 +7797,18 @@
         <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>377</v>
+        <v>155</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7702,13 +7856,13 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>77</v>
@@ -7731,10 +7885,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7757,17 +7911,17 @@
         <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7792,13 +7946,13 @@
         <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>382</v>
+        <v>77</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>383</v>
+        <v>77</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>77</v>
@@ -7816,7 +7970,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7845,10 +7999,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7868,21 +8022,19 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>155</v>
+        <v>382</v>
       </c>
       <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>386</v>
-      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7930,7 +8082,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7959,10 +8111,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7982,21 +8134,19 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>259</v>
+        <v>180</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>390</v>
-      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>77</v>
       </c>
@@ -8044,7 +8194,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8056,7 +8206,7 @@
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
@@ -8068,15 +8218,15 @@
         <v>77</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>77</v>
+        <v>387</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8099,13 +8249,13 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>392</v>
+        <v>131</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>393</v>
+        <v>132</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>394</v>
+        <v>133</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8144,19 +8294,17 @@
         <v>77</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC55" s="2"/>
       <c r="AD55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8168,7 +8316,7 @@
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>77</v>
@@ -8185,12 +8333,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="D56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8211,15 +8361,17 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>192</v>
+        <v>392</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -8268,19 +8420,19 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
@@ -8292,17 +8444,19 @@
         <v>77</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>399</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="D57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8323,15 +8477,17 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>131</v>
+        <v>398</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>132</v>
+        <v>399</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -8368,17 +8524,19 @@
         <v>77</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC57" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8387,7 +8545,7 @@
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>137</v>
@@ -8407,13 +8565,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="C58" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
@@ -8423,7 +8581,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8435,16 +8593,16 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8494,7 +8652,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8523,46 +8681,46 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="C59" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="B59" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>408</v>
+        <v>77</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>131</v>
+        <v>403</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8610,7 +8768,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8619,7 +8777,7 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>137</v>
@@ -8634,17 +8792,19 @@
         <v>77</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8665,15 +8825,17 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>272</v>
+        <v>403</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8722,19 +8884,19 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>77</v>
@@ -8751,12 +8913,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="D61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8777,15 +8941,17 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>192</v>
+        <v>413</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -8834,19 +9000,19 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>415</v>
+        <v>389</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>77</v>
@@ -8863,12 +9029,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="C62" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="D62" t="s" s="2">
         <v>77</v>
       </c>
@@ -8877,7 +9045,7 @@
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>77</v>
@@ -8889,15 +9057,17 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>392</v>
+        <v>418</v>
       </c>
       <c r="L62" t="s" s="2">
         <v>419</v>
       </c>
       <c r="M62" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="N62" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>77</v>
@@ -8946,7 +9116,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8955,10 +9125,10 @@
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>77</v>
@@ -8978,9 +9148,11 @@
         <v>421</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="D63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9001,15 +9173,17 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>192</v>
+        <v>422</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>396</v>
+        <v>423</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -9058,19 +9232,19 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>77</v>
@@ -9082,26 +9256,28 @@
         <v>77</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>399</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="D64" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>77</v>
@@ -9113,16 +9289,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>131</v>
+        <v>427</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>424</v>
+        <v>357</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>173</v>
+        <v>429</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9172,7 +9348,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9181,7 +9357,7 @@
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>137</v>
@@ -9196,51 +9372,51 @@
         <v>77</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>399</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="C65" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="D65" t="s" s="2">
-        <v>408</v>
+        <v>77</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>131</v>
+        <v>432</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>410</v>
+        <v>368</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9288,7 +9464,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9297,7 +9473,7 @@
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>137</v>
@@ -9312,47 +9488,51 @@
         <v>77</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>77</v>
+        <v>436</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>272</v>
+        <v>131</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9376,13 +9556,13 @@
         <v>77</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>429</v>
+        <v>77</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>430</v>
+        <v>77</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>77</v>
@@ -9400,19 +9580,19 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>77</v>
@@ -9424,15 +9604,15 @@
         <v>77</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9455,13 +9635,13 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>192</v>
+        <v>260</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9512,7 +9692,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9541,10 +9721,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9552,7 +9732,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>86</v>
@@ -9567,17 +9747,15 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>435</v>
+        <v>180</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -9626,10 +9804,10 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>86</v>
@@ -9655,10 +9833,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9681,13 +9859,13 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9738,7 +9916,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9767,10 +9945,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9793,13 +9971,13 @@
         <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9850,7 +10028,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -9874,19 +10052,19 @@
         <v>77</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -9908,14 +10086,12 @@
         <v>131</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>423</v>
+        <v>132</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>77</v>
@@ -9952,19 +10128,17 @@
         <v>77</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC71" s="2"/>
       <c r="AD71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -9988,51 +10162,51 @@
         <v>77</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>399</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="D72" t="s" s="2">
-        <v>408</v>
+        <v>77</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>131</v>
+        <v>452</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>409</v>
+        <v>453</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>410</v>
+        <v>454</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>77</v>
       </c>
@@ -10080,7 +10254,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10089,7 +10263,7 @@
         <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>137</v>
@@ -10104,17 +10278,19 @@
         <v>77</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="C73" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="D73" t="s" s="2">
         <v>77</v>
       </c>
@@ -10135,15 +10311,17 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>272</v>
+        <v>458</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -10192,19 +10370,19 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>445</v>
+        <v>389</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>77</v>
@@ -10221,12 +10399,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="C74" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="D74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10247,15 +10427,17 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>192</v>
+        <v>464</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>77</v>
@@ -10304,19 +10486,19 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>448</v>
+        <v>389</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>77</v>
@@ -10333,42 +10515,46 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>77</v>
+        <v>436</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>435</v>
+        <v>131</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
       </c>
@@ -10416,19 +10602,19 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>77</v>
@@ -10440,15 +10626,15 @@
         <v>77</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10459,7 +10645,7 @@
         <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>77</v>
@@ -10471,17 +10657,15 @@
         <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>392</v>
+        <v>260</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>77</v>
@@ -10506,13 +10690,13 @@
         <v>77</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>77</v>
+        <v>472</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>77</v>
+        <v>473</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>77</v>
@@ -10530,13 +10714,13 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>77</v>
@@ -10559,10 +10743,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10585,13 +10769,13 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>396</v>
+        <v>475</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>397</v>
+        <v>476</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10642,7 +10826,7 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>398</v>
+        <v>474</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -10654,7 +10838,7 @@
         <v>77</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>77</v>
@@ -10666,26 +10850,26 @@
         <v>77</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>399</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>77</v>
@@ -10697,16 +10881,16 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>131</v>
+        <v>478</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>423</v>
+        <v>479</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>424</v>
+        <v>480</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>173</v>
+        <v>481</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10756,19 +10940,19 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>401</v>
+        <v>477</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>77</v>
@@ -10780,19 +10964,19 @@
         <v>77</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>399</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>460</v>
+        <v>482</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>460</v>
+        <v>482</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>408</v>
+        <v>77</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -10805,26 +10989,22 @@
         <v>77</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>131</v>
+        <v>380</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>409</v>
+        <v>483</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>77</v>
       </c>
@@ -10872,7 +11052,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>411</v>
+        <v>482</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -10884,7 +11064,7 @@
         <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>77</v>
@@ -10896,15 +11076,15 @@
         <v>77</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>461</v>
+        <v>485</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>461</v>
+        <v>485</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10927,13 +11107,13 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>272</v>
+        <v>180</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>462</v>
+        <v>384</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>463</v>
+        <v>385</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10984,7 +11164,7 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>461</v>
+        <v>386</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -10996,7 +11176,7 @@
         <v>77</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>77</v>
@@ -11008,15 +11188,15 @@
         <v>77</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>77</v>
+        <v>387</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11027,7 +11207,7 @@
         <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>77</v>
@@ -11039,13 +11219,13 @@
         <v>77</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>465</v>
+        <v>132</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>466</v>
+        <v>133</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11084,31 +11264,29 @@
         <v>77</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC81" s="2"/>
       <c r="AD81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>464</v>
+        <v>389</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>77</v>
@@ -11125,18 +11303,20 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="C82" s="2"/>
+        <v>486</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="D82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>86</v>
@@ -11151,15 +11331,17 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>435</v>
+        <v>488</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>468</v>
+        <v>489</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>77</v>
@@ -11208,19 +11390,19 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>467</v>
+        <v>389</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>77</v>
@@ -11237,14 +11419,14 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>77</v>
+        <v>436</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11257,24 +11439,26 @@
         <v>77</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>392</v>
+        <v>131</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>471</v>
+        <v>437</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
       </c>
@@ -11322,7 +11506,7 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>470</v>
+        <v>439</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -11334,7 +11518,7 @@
         <v>77</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>77</v>
@@ -11346,15 +11530,15 @@
         <v>77</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11377,13 +11561,13 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>192</v>
+        <v>260</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>396</v>
+        <v>493</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>397</v>
+        <v>494</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11434,7 +11618,7 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>398</v>
+        <v>492</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -11446,7 +11630,7 @@
         <v>77</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>77</v>
@@ -11458,15 +11642,15 @@
         <v>77</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>399</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11477,7 +11661,7 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>77</v>
@@ -11489,13 +11673,13 @@
         <v>77</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>132</v>
+        <v>496</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>133</v>
+        <v>497</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11534,29 +11718,31 @@
         <v>77</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC85" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>401</v>
+        <v>495</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>77</v>
@@ -11573,14 +11759,12 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>476</v>
+        <v>498</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="C86" t="s" s="2">
-        <v>477</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
         <v>77</v>
       </c>
@@ -11589,7 +11773,7 @@
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>77</v>
@@ -11604,14 +11788,12 @@
         <v>478</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>77</v>
@@ -11660,19 +11842,19 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>401</v>
+        <v>498</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>77</v>
@@ -11689,14 +11871,14 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>408</v>
+        <v>77</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -11709,26 +11891,24 @@
         <v>77</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>131</v>
+        <v>380</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>409</v>
+        <v>502</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>410</v>
+        <v>503</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>77</v>
       </c>
@@ -11776,7 +11956,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>411</v>
+        <v>501</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -11788,7 +11968,7 @@
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>77</v>
@@ -11800,15 +11980,15 @@
         <v>77</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>482</v>
+        <v>505</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>482</v>
+        <v>505</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11831,13 +12011,13 @@
         <v>77</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>272</v>
+        <v>180</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>483</v>
+        <v>384</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>484</v>
+        <v>385</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11888,7 +12068,7 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>482</v>
+        <v>386</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -11900,7 +12080,7 @@
         <v>77</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>77</v>
@@ -11912,15 +12092,15 @@
         <v>77</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>77</v>
+        <v>387</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>485</v>
+        <v>506</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>485</v>
+        <v>506</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11943,13 +12123,13 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>272</v>
+        <v>131</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>486</v>
+        <v>132</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>487</v>
+        <v>133</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -11976,31 +12156,29 @@
         <v>77</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>488</v>
+        <v>77</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>489</v>
+        <v>77</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC89" s="2"/>
       <c r="AD89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>485</v>
+        <v>389</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -12012,7 +12190,7 @@
         <v>77</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>77</v>
@@ -12029,12 +12207,14 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="C90" s="2"/>
+        <v>506</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="D90" t="s" s="2">
         <v>77</v>
       </c>
@@ -12055,15 +12235,17 @@
         <v>77</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>192</v>
+        <v>508</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>491</v>
+        <v>509</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>510</v>
+      </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -12112,19 +12294,19 @@
         <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>490</v>
+        <v>389</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>77</v>
@@ -12141,42 +12323,46 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>77</v>
+        <v>436</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>435</v>
+        <v>131</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>494</v>
+        <v>437</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>77</v>
       </c>
@@ -12224,30 +12410,1382 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>493</v>
+        <v>439</v>
       </c>
       <c r="AG91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G92" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AH91" t="s" s="2">
+      <c r="H92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH92" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AI91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
+      <c r="AI92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AK91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN91" t="s" s="2">
+      <c r="AK92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="O95" s="2"/>
+      <c r="P95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AC97" s="2"/>
+      <c r="AD97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="D98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="O98" s="2"/>
+      <c r="P98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="P99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN103" t="s" s="2">
         <v>77</v>
       </c>
     </row>
